--- a/outputs/sanitairkamer.xlsx
+++ b/outputs/sanitairkamer.xlsx
@@ -493,18 +493,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW161922</t>
+          <t>SW108328</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SK22736</t>
+          <t>SK22734</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Saniclear Circle ronde spiegel met LED verlichting 100cm incl. spiegelverwarming</t>
+          <t>Saniclear Circle ronde spiegel met LED verlichting 80cm incl. spiegelverwarming</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -520,26 +520,30 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>235.01</v>
+        <v>185.01</v>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-80cm-incl-spiegelverwarming-sk22734.html</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SW108325</t>
+          <t>SW161923</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SK22732</t>
+          <t>SK22737</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Saniclear Circle ronde spiegel met LED verlichting 60cm incl. spiegelverwarming</t>
+          <t>Saniclear Circle ronde spiegel met LED verlichting 120cm incl. spiegelverwarming</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,61 +559,65 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-120cm-incl-spiegelverwarming-sk22737.html</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SW161923</t>
+          <t>SW161911</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SK22737</t>
+          <t>SK50827</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Saniclear Circle ronde spiegel met LED verlichting 120cm incl. spiegelverwarming</t>
+          <t>Mueller Back to wall vrijstaand bad 170x75cm met afvoer glans wit</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Saniclear</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Circle</t>
-        </is>
-      </c>
+          <t>Mueller</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>259</v>
+        <v>1079.99</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-back-to-wall-vrijstaand-bad-170x75cm-met-afvoer-sk50827.html</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SW108328</t>
+          <t>SW108325</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SK22734</t>
+          <t>SK22732</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Saniclear Circle ronde spiegel met LED verlichting 80cm incl. spiegelverwarming</t>
+          <t>Saniclear Circle ronde spiegel met LED verlichting 60cm incl. spiegelverwarming</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -625,41 +633,53 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>185.01</v>
+        <v>155</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-60cm-incl-spiegelverwarming-sk22732.html</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SW161911</t>
+          <t>SW161922</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SK50827</t>
+          <t>SK22736</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mueller Back to wall vrijstaand bad 170x75cm met afvoer glans wit</t>
+          <t>Saniclear Circle ronde spiegel met LED verlichting 100cm incl. spiegelverwarming</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mueller</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Saniclear</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Circle</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1079.99</v>
+        <v>235.01</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-100cm-incl-spiegelverwarming-sk22736.html</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -694,7 +714,11 @@
         <v>219</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/sanigoods-la-belle-opbouw-regendouche-mat-zwart-30cm-hoofddouche-sk28564.html</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -729,23 +753,27 @@
         <v>199</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/sanigoods-la-belle-opbouw-regendouche-mat-zwart-25cm-hoofddouche-sk28487.html</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SW1009</t>
+          <t>SW278130</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SK50858</t>
+          <t>SK59128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mueller Eco douchewand 90x200cm anti-kalk 8mm</t>
+          <t>Mueller Sun buitendouche met handdouche 234cm RVS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -755,32 +783,36 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Eco</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>99</v>
+        <v>639.99</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-sun-buitendouche-met-handdouche-232cm-rvs-sk59128.html</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SW278130</t>
+          <t>SW1009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SK59128</t>
+          <t>SK50858</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mueller Sun buitendouche met handdouche 234cm RVS</t>
+          <t>Mueller Eco douchewand 90x200cm anti-kalk 8mm</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -790,16 +822,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Eco</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>639.99</v>
+        <v>99</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-eco-douchewand-90x200cm-anti-kalk-8mm-sk50858.html</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -834,7 +870,11 @@
         <v>137</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-mist-stortdouche-met-thermostaatkraan-chroom-sk11577.html</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -869,7 +909,11 @@
         <v>99</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-120x200cm-anti-kalk-8mm-sk50860.html</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -904,7 +948,11 @@
         <v>334.95</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-skyline-inloopdouche-120x200cm-mat-zwart-raster-8mm-nano-sk51290.html</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -939,7 +987,11 @@
         <v>794.99</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-freshline-half-vrijstaand-bad-180x80-glans-wit-sk29019.html</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -974,7 +1026,11 @@
         <v>219.01</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-120x70cm-met-led-verlichting-en-spiegelverwarming-sk22740.html</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1009,7 +1065,11 @@
         <v>99</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-eco-douchescherm-100x200cm-anti-kalk-8mm-sk50859.html</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1040,7 +1100,11 @@
         <v>269.95</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/nordal-denmark-zwarte-ronde-spiegel-80cm-sk27339.html</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1075,7 +1139,11 @@
         <v>250</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-cube-ligbad-180x80cm-wit-sk1116.html</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1106,7 +1174,11 @@
         <v>108</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-mat-zwart-30x60x7cm-rvs-8719956084652-33-2181-sk21504.html</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1141,7 +1213,11 @@
         <v>375</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-talpa-opbouw-regendouche-chroom-30cm-hoofddouche-staafhanddouche-sk24819.html</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1176,7 +1252,11 @@
         <v>236</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/best-design-bob-ligbad-180x80x42cm-3801360.html</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1211,89 +1291,101 @@
         <v>309.95</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-skyline-inloopdouche-100x200cm-mat-zwart-raster-8mm-nano-sk51288.html</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SW108326</t>
+          <t>SW157888</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SK22739</t>
+          <t>SK21503</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Saniclear Aspen spiegel 100x70cm met LED verlichting en spiegelverwarming</t>
+          <t>Mueller inbouwnis mat zwart 30x30x7cm RVS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Saniclear</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Aspen</t>
-        </is>
-      </c>
+          <t>Mueller</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>189</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-mat-zwart-30x30x7cm-rvs-8719956084645-33-2180-sk21503.html</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SW157888</t>
+          <t>SW108326</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SK21503</t>
+          <t>SK22739</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mueller inbouwnis mat zwart 30x30x7cm RVS</t>
+          <t>Saniclear Aspen spiegel 100x70cm met LED verlichting en spiegelverwarming</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Mueller</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>Saniclear</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Aspen</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>98.01000000000001</v>
+        <v>189</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-100x70cm-met-led-verlichting-en-spiegelverwarming-sk22739.html</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SW238210</t>
+          <t>SW1125</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SK23066</t>
+          <t>sk1115</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Saniclear Block douchewand mat zwart 120x200cm anti-kalk 8mm</t>
+          <t>Saniclear Cube Ligbad 170x75cm wit</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1303,32 +1395,36 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Block</t>
+          <t>Cube</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-cube-ligbad-170x75cm-wit-sk1115.html</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SW1125</t>
+          <t>SW238210</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sk1115</t>
+          <t>SK23066</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Saniclear Cube Ligbad 170x75cm wit</t>
+          <t>Saniclear Block douchewand mat zwart 120x200cm anti-kalk 8mm</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1338,16 +1434,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cube</t>
+          <t>Block</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-120x200cm-anti-kalk-8mm-sk23066.html</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1378,23 +1478,27 @@
         <v>99.75</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-30x60x7cm-rvs-sk50941.html</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SW23914</t>
+          <t>SW238201</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SK6706</t>
+          <t>SK30401</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Saniclear Athene vierkante SMC douchebak 90x90cm wit</t>
+          <t>Saniclear Nero inloopdouche 90x200 8mm NANO met zwarte profielen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1404,32 +1508,36 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Athene</t>
+          <t>Nero</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-nero-inloopdouche-90x200-8mm-nano-met-zwarte-profielen-sk30401.html</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SW238201</t>
+          <t>SW23914</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SK30401</t>
+          <t>SK6706</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Saniclear Nero inloopdouche 90x200 8mm NANO met zwarte profielen</t>
+          <t>Saniclear Athene vierkante SMC douchebak 90x90cm wit</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1439,86 +1547,98 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nero</t>
+          <t>Athene</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-athene-vierkante-smc-douchebak-90x90cm-wit-sk6706.html</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SW238224</t>
+          <t>SW108324</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SK35205</t>
+          <t>SK29161</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Kerra Optimo douchedeur 100x190cm chroom</t>
+          <t>Gliss Design Oko ronde spiegel met verlichting 40cm</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kerra</t>
+          <t>Gliss Design</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Optimo</t>
+          <t>Oko</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>234.99</v>
+        <v>189.99</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/gliss-design-oko-ronde-spiegel-met-verlichting-40cm-sk29161.html</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SW108324</t>
+          <t>SW238224</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SK29161</t>
+          <t>SK35205</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Gliss Design Oko ronde spiegel met verlichting 40cm</t>
+          <t>Kerra Optimo douchedeur 100x190cm chroom</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gliss Design</t>
+          <t>Kerra</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Oko</t>
+          <t>Optimo</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>189.99</v>
+        <v>234.99</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/kerra-optimo-douchedeur-100x190cm-chroom-sk35205.html</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1553,77 +1673,89 @@
         <v>199</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-120x80cm-sk50729.html</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SW2328</t>
+          <t>SW238231</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SK50857</t>
+          <t>SK30201</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mueller Eco douchewand 80x200cm anti-kalk 8mm</t>
+          <t>Saniclear Swing douchecabine 90x90 vierkant</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mueller</t>
+          <t>Saniclear</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Eco</t>
+          <t>Swing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>99</v>
+        <v>819</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-swing-douchecabine-90x90-vierkant-sk30201.html</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SW238231</t>
+          <t>SW2328</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SK30201</t>
+          <t>SK50857</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Saniclear Swing douchecabine 90x90 vierkant</t>
+          <t>Mueller Eco douchewand 80x200cm anti-kalk 8mm</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Saniclear</t>
+          <t>Mueller</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Swing</t>
+          <t>Eco</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>819</v>
+        <v>99</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-80x200cm-anti-kalk-8mm-sk50857.html</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1658,7 +1790,11 @@
         <v>335</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-nero-inloopdouche-120x200-8mm-nano-met-zwarte-profielen-sk30403.html</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1693,7 +1829,11 @@
         <v>229</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-100x200cm-anti-kalk-8mm-sk23065.html</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1728,7 +1868,11 @@
         <v>199</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/sanigoods-clear-inloopdouche-120cm-helder-anti-kalk-incl-zwart-profiel-stang.html</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1763,7 +1907,11 @@
         <v>4.95</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-nero-toiletborstel-met-wandhouder-mat-zwart-sk22053.html</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1798,7 +1946,11 @@
         <v>465.95</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/best-design-nero-inloopdouche-140x200cm-anti-kalk-10mm-sk51395.html</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1833,7 +1985,11 @@
         <v>25</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-nero-toiletrolhouder-mat-zwart-sk22050.html</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1868,7 +2024,11 @@
         <v>219</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-90x200cm-anti-kalk-8mm-sk23064.html</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1899,7 +2059,11 @@
         <v>79</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-handdoek-rek-houder-industrieel-95x25x20cm-mat-zwart-sk27063.html</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1934,7 +2098,11 @@
         <v>365</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-around-inloopdouche-110x200-mat-zwart-anti-kalk-sk59017.html</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1969,7 +2137,11 @@
         <v>295</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/aqualine-pilot-pendeldeuren-chroom-90x190cm-sk29088.html</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2004,7 +2176,11 @@
         <v>158.99</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-80x80cm-sk50727.html</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2039,7 +2215,11 @@
         <v>355</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/gliss-design-vertical-spiegel-met-led-verlichting-120x70cm-sk29179.html</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2074,7 +2254,11 @@
         <v>179</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-100x80cm-sk50728.html</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2109,77 +2293,89 @@
         <v>205</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-corner-vierkante-douchecabine-90x90x185cm-chroom-sk11731.html</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SW377850</t>
+          <t>SW238200</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SK28630</t>
+          <t>SK51286</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SaniGoods Adobe inbouw regendouche mat zwart 25cm</t>
+          <t>Mueller Skyline inloopdouche 80x200cm mat zwart raster 8mm NANO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SaniGoods</t>
+          <t>Mueller</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>Skyline</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>425</v>
+        <v>274.96</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-skyline-inloopdouche-80x200cm-mat-zwart-raster-8mm-nano-sk51286.html</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SW238200</t>
+          <t>SW377850</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SK51286</t>
+          <t>SK28630</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mueller Skyline inloopdouche 80x200cm mat zwart raster 8mm NANO</t>
+          <t>SaniGoods Adobe inbouw regendouche mat zwart 25cm</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mueller</t>
+          <t>SaniGoods</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skyline</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>274.96</v>
+        <v>425</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/sanigoods-adobe-inbouw-regendouche-mat-zwart-25cm-sk28630.html</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2214,7 +2410,11 @@
         <v>199</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-aura-douchecabine-kwartrond-90x90x190cm-chroom-sk11176.html</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2249,168 +2449,204 @@
         <v>345</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/kerra-olga-square-douchecabine-vierkant-incl-douchebak-90x90cm-wit-sk35025.html</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SW238226</t>
+          <t>SW237319</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SK35208</t>
+          <t>SK22055</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kerra Optimo douchedeur 120x190cm chroom</t>
+          <t>Saniclear Nero badkamer wisser 25cm mat zwart</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Kerra</t>
+          <t>Saniclear</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Optimo</t>
+          <t>Nero</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>315</v>
+        <v>35.01</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-nero-badkamer-wisser-25cm-mat-zwart-sk22055.html</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SW238213</t>
+          <t>SW238226</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SK22738</t>
+          <t>SK35208</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Saniclear Aspen spiegel 80x70cm met LED verlichting en spiegelverwarming</t>
+          <t>Kerra Optimo douchedeur 120x190cm chroom</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Saniclear</t>
+          <t>Kerra</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Aspen</t>
+          <t>Optimo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/kerra-optimo-douchedeur-120x190cm-chroom-sk35208.html</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SW8415</t>
+          <t>SW238213</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SK51526</t>
+          <t>SK22738</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Badstuber Elite douche vouwdeur chroom 80x195cm anti-kalk</t>
+          <t>Saniclear Aspen spiegel 80x70cm met LED verlichting en spiegelverwarming</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Badstuber</t>
+          <t>Saniclear</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Aspen</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-80x70cm-met-led-verlichting-en-spiegelverwarming-sk22738.html</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SW208803</t>
+          <t>SW8415</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SK50856</t>
+          <t>SK51526</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mueller Eco douchewand 70x200cm anti-kalk 8mm</t>
+          <t>Badstuber Elite douche vouwdeur chroom 80x195cm anti-kalk</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mueller</t>
+          <t>Badstuber</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Eco</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-elite-douche-vouwdeur-chroom-80x195cm-anti-kalk-sk51526.html</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SW237319</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>200</v>
+          <t>SW208803</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SK50856</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Mueller Eco douchewand 70x200cm anti-kalk 8mm</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Mueller</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Eco</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>99</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/search/kleur/zwart-mat/sort-by/price/sort-direction/asc?q=wisser</t>
+          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-70x200cm-anti-kalk-8mm-sk50856.html</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2683,11 @@
         <v>229</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-window-douchewand-mat-zwart-geruit-120x195cm-sk51433.html</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2482,108 +2722,124 @@
         <v>234.95</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-slimline-inloopdouche-140cm-helder-anti-kalk-incl-chroom-profiel-stang-sk21767.html</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SW156384</t>
+          <t>SW208805</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SK29086</t>
+          <t>SK50940</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Aqualine Pilot draaideur 90x190cm met chromen profielen</t>
+          <t>Mueller inbouwnis 30x30x7cm RVS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Aqualine</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Pilot</t>
-        </is>
-      </c>
+          <t>Mueller</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>275</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-30x30x7cm-rvs-sk50940.html</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SW208805</t>
+          <t>SW156384</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SK50940</t>
+          <t>SK29086</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mueller inbouwnis 30x30x7cm RVS</t>
+          <t>Aqualine Pilot draaideur 90x190cm met chromen profielen</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mueller</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+          <t>Aqualine</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>75.01000000000001</v>
+        <v>275</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/aqualine-pilot-draaideur-90x190cm-met-chromen-profielen-sk29086.html</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SW8416</t>
+          <t>SW447</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SK23063</t>
+          <t>SK50726</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Saniclear Block douchewand mat zwart 80x200cm anti-kalk 8mm</t>
+          <t>Mueller Shine LED spiegel 60x80cm</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Saniclear</t>
+          <t>Mueller</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Block</t>
+          <t>Shine</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>209</v>
+        <v>144.99</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-60x80cm-sk50726.html</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2618,68 +2874,76 @@
         <v>237</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-elite-douche-vouwdeur-chroom-90x195cm-anti-kalk-sk51527.html</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SW447</t>
+          <t>SW238206</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SK50726</t>
+          <t>SK51432</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mueller Shine LED spiegel 60x80cm</t>
+          <t>Badstuber Window douchewand mat zwart geruit 100x195cm</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mueller</t>
+          <t>Badstuber</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Shine</t>
+          <t>Window</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>144.99</v>
+        <v>209</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-window-douchewand-mat-zwart-geruit-100x195cm-sk51432.html</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SW238206</t>
+          <t>SW8416</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SK51432</t>
+          <t>SK23063</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Badstuber Window douchewand mat zwart geruit 100x195cm</t>
+          <t>Saniclear Block douchewand mat zwart 80x200cm anti-kalk 8mm</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Badstuber</t>
+          <t>Saniclear</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Window</t>
+          <t>Block</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2688,77 +2952,89 @@
         <v>209</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-80x200cm-anti-kalk-8mm-sk23063.html</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SW238196</t>
+          <t>SW208802</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SK50855</t>
+          <t>SK21574</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mueller Eco douchewand 60x200cm anti-kalk 8mm</t>
+          <t>Sanigoods Satin 120cm gedeeltelijk melkglas douchewand 8mm antikalk</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mueller</t>
+          <t>SaniGoods</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Eco</t>
+          <t>Satin</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/sanigoods-satin-120cm-gedeeltelijk-melkglas-douchewand-8mm-antikalk-sk21574.html</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SW208802</t>
+          <t>SW238196</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SK21574</t>
+          <t>SK50855</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sanigoods Satin 120cm gedeeltelijk melkglas douchewand 8mm antikalk</t>
+          <t>Mueller Eco douchewand 60x200cm anti-kalk 8mm</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SaniGoods</t>
+          <t>Mueller</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Satin</t>
+          <t>Eco</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-60x200cm-anti-kalk-8mm-sk50855.html</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2793,103 +3069,115 @@
         <v>435</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/van-rijn-st01-profielloze-nisdeur-90cm-chroom-sk35340.html</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SW20614</t>
+          <t>SW23918</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SK6710</t>
+          <t>SK28544</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Saniclear Athene rechthoekige SMC douchebak 120x90cm wit</t>
+          <t>van Rijn inloopdouche ST04 mat zwart 140x200cm</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Saniclear</t>
+          <t>van Rijn</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Athene</t>
+          <t>ST04</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>129</v>
+        <v>515</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/van-rijn-inloopdouche-st04-mat-zwart-140x200cm-sk28544.html</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SW23918</t>
+          <t>SW20614</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SK28544</t>
+          <t>SK6710</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>van Rijn inloopdouche ST04 mat zwart 140x200cm</t>
+          <t>Saniclear Athene rechthoekige SMC douchebak 120x90cm wit</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>van Rijn</t>
+          <t>Saniclear</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ST04</t>
+          <t>Athene</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>515</v>
+        <v>129</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-athene-rechthoekige-smc-douchebak-120x90cm-wit-sk6710.html</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SW208801</t>
+          <t>SW377810</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SK50749</t>
+          <t>SK6705</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mueller Clips inloopdouche profielloos 120x200cm ANTI-KALK</t>
+          <t>Saniclear Athene vierkante SMC douchebak 80x80cm wit</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Mueller</t>
+          <t>Saniclear</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Clips</t>
+          <t>Athene</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2898,7 +3186,11 @@
         <v>99</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-athene-vierkante-smc-douchebak-80x80cm-wit-sk6705.html</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2933,33 +3225,37 @@
         <v>99</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-50x200cm-anti-kalk-8mm-sk50854.html</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SW377810</t>
+          <t>SW208801</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SK6705</t>
+          <t>SK50749</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Saniclear Athene vierkante SMC douchebak 80x80cm wit</t>
+          <t>Mueller Clips inloopdouche profielloos 120x200cm ANTI-KALK</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Saniclear</t>
+          <t>Mueller</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Athene</t>
+          <t>Clips</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2968,7 +3264,11 @@
         <v>99</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-clips-inloopdouche-profielloos-120x200cm-anti-kalk-sk50749.html</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3003,7 +3303,11 @@
         <v>309</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/aqualine-pilot-pendeldeuren-chroom-100x190cm-sk29089.html</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3038,7 +3342,11 @@
         <v>158.99</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-olas-spiegel-met-led-verlichting-100x60cm-sk11251.html</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3073,23 +3381,27 @@
         <v>375</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/sanigoods-next-douchewand-met-mat-zwart-raster-140x200cm-sk27485.html</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SW208813</t>
+          <t>SW88209</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SK50818</t>
+          <t>SK51253</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mueller Basic douchewand 40x200cm met anti-kalk coating</t>
+          <t>Mueller Slimline glaswand mat glas 100x200cm 8mm NANO glas</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3099,32 +3411,36 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>Slimline</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-mat-glas-100x200cm-8mm-nano-glas.html</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SW88209</t>
+          <t>SW208813</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SK51253</t>
+          <t>SK50818</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mueller Slimline glaswand mat glas 100x200cm 8mm NANO glas</t>
+          <t>Mueller Basic douchewand 40x200cm met anti-kalk coating</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3134,51 +3450,59 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Slimline</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-basic-douchewand-40x200cm-met-anti-kalk-coating-sk50818.html</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SW209329</t>
+          <t>SW208806</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SK30200</t>
+          <t>SK51304</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Saniclear Swing douchecabine 80x80 vierkant</t>
+          <t>Mueller Slimline glaswand 140x200cm 8mm NANO glas</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Saniclear</t>
+          <t>Mueller</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Swing</t>
+          <t>Slimline</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-140x200cm-8mm-nano-glas.html</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3213,42 +3537,50 @@
         <v>15.5</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-tris-douchebak-rechthoek-smc-100x90cm-sk27661.html</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SW208806</t>
+          <t>SW209329</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SK51304</t>
+          <t>SK30200</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mueller Slimline glaswand 140x200cm 8mm NANO glas</t>
+          <t>Saniclear Swing douchecabine 80x80 vierkant</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Mueller</t>
+          <t>Saniclear</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Slimline</t>
+          <t>Swing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-swing-douchecabine-80x80-vierkant-sk30200.html</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3283,7 +3615,11 @@
         <v>192</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/best-design-donar-douchebak-vierkant-100x100cm-3801420.html</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3318,7 +3654,11 @@
         <v>39</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-venus-douchebak-90x90x5-5cm-wit-sk11111.html</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3353,7 +3693,11 @@
         <v>99</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-80x80cm-wit-sk6708.html</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3388,7 +3732,11 @@
         <v>99</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-athene-vierkante-smc-douchebak-80x80cm-wit-sk6705.html</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3423,7 +3771,11 @@
         <v>39</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-zeus-kwartronde-douchebak-100x100x5-5cm-wit-sk11115.html</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3458,7 +3810,11 @@
         <v>345</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/kerra-glasgow-douchebak-vijfhoek-90x90x6cm-sk4377.html</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3493,7 +3849,11 @@
         <v>192</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/best-design-donar-douchebak-vierkant-100x100cm-3801420.html</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3528,7 +3888,11 @@
         <v>109</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-90x90cm-wit-sk6707.html</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3563,7 +3927,11 @@
         <v>99</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-80x80cm-wit-sk6708.html</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3598,69 +3966,81 @@
         <v>39</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/badstuber-zeus-kwartronde-douchebak-100x100x5-5cm-wit-sk11115.html</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SW377837</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>SW213536</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SK22756</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Opbouw Waskom Boss &amp; Wessing Fabiana 50x35x14 cm Solid Surface Mat Wit</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+          <t>Saniclear Stilo vrijstaand bad solid surface mat wit 178x92x55cm</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Saniclear</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Fabiana</t>
+          <t>Stilo</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>199</v>
+        <v>1695</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>https://sanitairkamer.nl/saniclear-stilo-vrijstaand-bad-solid-surface-mat-wit-178x92x55cm-sk22756.html</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SW213536</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>SK22756</t>
-        </is>
-      </c>
+          <t>SW377837</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Saniclear Stilo vrijstaand bad solid surface mat wit 178x92x55cm</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Saniclear</t>
-        </is>
-      </c>
+          <t>Opbouw Waskom Boss &amp; Wessing Fabiana 50x35x14 cm Solid Surface Mat Wit</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Stilo</t>
+          <t>Fabiana</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>1695</v>
+        <v>199</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>https://www.tegeldepot.nl/opbouw-waskom-boss-wessing-fabiana-50x35x14-cm-solid-surface-mat-wit</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/sanitairkamer.xlsx
+++ b/outputs/sanitairkamer.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.01</v>
+        <v>589</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -580,25 +580,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SW108325</t>
+          <t>SW108328</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155</v>
+        <v>185.01</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-60cm-incl-spiegelverwarming-sk22732.html</t>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-80cm-incl-spiegelverwarming-sk22734.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>149.95</t>
+          <t>179.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -626,92 +626,92 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SW161911</t>
+          <t>SW108325</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1079.99</v>
+        <v>399</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-back-to-wall-vrijstaand-bad-170x75cm-met-afvoer-sk50827.html</t>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-60cm-incl-spiegelverwarming-sk22732.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>852.99</t>
+          <t>149.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SW108328</t>
+          <t>SW161911</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185.01</v>
+        <v>1079.99</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-80cm-incl-spiegelverwarming-sk22734.html</t>
+          <t>https://sanitairkamer.nl/mueller-back-to-wall-vrijstaand-bad-170x75cm-met-afvoer-sk50827.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>179.95</t>
+          <t>852.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>5 days delivery</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1 weeks delivery</t>
+          <t>5 days delivery</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sw6238</t>
+          <t>SW6238</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1253,15 +1253,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+          <t>16-09-2021</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1279,7 +1299,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1325,7 +1345,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1358,7 +1378,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sw6328</t>
+          <t>SW6328</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1371,15 +1391,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+          <t>16-09-2021</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1397,7 +1437,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1434,25 +1474,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SW157888</t>
+          <t>SW108326</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.01000000000001</v>
+        <v>189</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-inbouwnis-mat-zwart-30x30x7cm-rvs-8719956084645-33-2180-sk21503.html</t>
+          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-100x70cm-met-led-verlichting-en-spiegelverwarming-sk22739.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>100.99</t>
+          <t>264</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1462,43 +1502,43 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SW108326</t>
+          <t>SW157888</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>189</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-100x70cm-met-led-verlichting-en-spiegelverwarming-sk22739.html</t>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-mat-zwart-30x30x7cm-rvs-8719956084645-33-2180-sk21503.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>100.99</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1508,43 +1548,43 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Nis badkamer</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Nis badkamer</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SW1125</t>
+          <t>SW157889</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>250</v>
+        <v>99.75</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-cube-ligbad-170x75cm-wit-sk1115.html</t>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-30x60x7cm-rvs-sk50941.html</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>109.99</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1554,43 +1594,43 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Nis badkamer</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Nis badkamer</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SW157889</t>
+          <t>SW1125</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.75</v>
+        <v>250</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-inbouwnis-30x60x7cm-rvs-sk50941.html</t>
+          <t>https://sanitairkamer.nl/saniclear-cube-ligbad-170x75cm-wit-sk1115.html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>109.99</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1600,18 +1640,18 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1671,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1681,7 +1721,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1691,7 +1731,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1731,7 +1771,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1781,7 +1821,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1827,7 +1867,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1873,7 +1913,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1883,7 +1923,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>3 weeks delivery</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1919,7 +1959,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1965,7 +2005,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1975,7 +2015,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2015,7 +2055,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2065,7 +2105,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2075,7 +2115,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2115,7 +2155,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2165,7 +2205,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2215,7 +2255,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2265,7 +2305,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2315,7 +2355,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2325,7 +2365,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>6 weeks delivery</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2365,7 +2405,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2415,7 +2455,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2465,7 +2505,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2511,7 +2551,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2521,7 +2561,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2557,7 +2597,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2603,7 +2643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2649,7 +2689,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2659,7 +2699,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2695,7 +2735,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2721,7 +2761,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2731,7 +2771,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3 weeks delivery</t>
+          <t>2 weeks delivery</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2771,7 +2811,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2781,7 +2821,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2817,7 +2857,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2827,7 +2867,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3 weeks delivery</t>
+          <t>2 weeks delivery</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2863,7 +2903,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2909,7 +2949,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2955,7 +2995,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3001,7 +3041,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3047,7 +3087,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3097,7 +3137,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3107,7 +3147,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3147,7 +3187,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3197,7 +3237,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3243,7 +3283,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3289,7 +3329,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3335,7 +3375,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3368,7 +3408,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SW238196</t>
+          <t>SW238206</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3376,22 +3416,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/badstuber-window-douchewand-mat-zwart-geruit-100x195cm-sk51432.html</t>
+          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-80x200cm-anti-kalk-8mm-sk23063.html</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>269.95</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>2 weeks delivery</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3418,7 +3458,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SW238206</t>
+          <t>SW238196</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3426,22 +3466,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-80x200cm-anti-kalk-8mm-sk23063.html</t>
+          <t>https://sanitairkamer.nl/badstuber-window-douchewand-mat-zwart-geruit-100x195cm-sk51432.html</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>269.95</t>
+          <t>319</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3481,7 +3521,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3531,7 +3571,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3581,7 +3621,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3627,7 +3667,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3677,7 +3717,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3687,7 +3727,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>2 weeks delivery</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3714,7 +3754,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SW208801</t>
+          <t>SW208810</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3722,22 +3762,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-50x200cm-anti-kalk-8mm-sk50854.html</t>
+          <t>https://sanitairkamer.nl/mueller-clips-inloopdouche-profielloos-120x200cm-anti-kalk-sk50749.html</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3764,7 +3804,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SW208810</t>
+          <t>SW208801</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3772,17 +3812,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-clips-inloopdouche-profielloos-120x200cm-anti-kalk-sk50749.html</t>
+          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-50x200cm-anti-kalk-8mm-sk50854.html</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>159.9</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3827,7 +3867,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3877,7 +3917,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3923,7 +3963,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3969,7 +4009,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4006,25 +4046,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SW238194</t>
+          <t>SW208800</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-mat-glas-100x200cm-8mm-nano-glas.html</t>
+          <t>https://sanitairkamer.nl/mueller-basic-douchewand-40x200cm-met-anti-kalk-coating-sk50818.html</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>199.95</t>
+          <t>119.9</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4056,30 +4096,30 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SW208800</t>
+          <t>SW238194</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-basic-douchewand-40x200cm-met-anti-kalk-coating-sk50818.html</t>
+          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-mat-glas-100x200cm-8mm-nano-glas.html</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>119.9</t>
+          <t>199.95</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4106,30 +4146,30 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SW23916</t>
+          <t>SW358009</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>15.5</v>
+        <v>240</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/badstuber-tris-douchebak-rechthoek-smc-100x90cm-sk27661.html</t>
+          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-140x200cm-8mm-nano-glas.html</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>139.95</t>
+          <t>244.95</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4139,47 +4179,47 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Douchewanden</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SW358009</t>
+          <t>SW23916</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>240</v>
+        <v>15.5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-140x200cm-8mm-nano-glas.html</t>
+          <t>https://sanitairkamer.nl/badstuber-tris-douchebak-rechthoek-smc-100x90cm-sk27661.html</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>244.95</t>
+          <t>139.95</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>4 weeks delivery</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4189,17 +4229,17 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
+          <t>Douchebakken</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4259,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4265,7 +4305,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4315,7 +4355,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4325,7 +4365,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>15 weeks delivery</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4365,7 +4405,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4415,7 +4455,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4465,7 +4505,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4515,7 +4555,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4565,7 +4605,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4615,7 +4655,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4665,7 +4705,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4715,7 +4755,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4765,7 +4805,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4775,7 +4815,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1 weeks delivery</t>
+          <t>14 weeks delivery</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4815,7 +4855,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4825,7 +4865,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1 weeks delivery</t>
+          <t>14 weeks delivery</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">

--- a/outputs/sanitairkamer.xlsx
+++ b/outputs/sanitairkamer.xlsx
@@ -488,25 +488,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW161922</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>589</v>
-      </c>
+          <t>SW108328</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-100cm-incl-spiegelverwarming-sk22736.html</t>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-80cm-incl-spiegelverwarming-sk22734.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>204.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -534,25 +532,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SW161923</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>259</v>
-      </c>
+          <t>SW161922</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-120cm-incl-spiegelverwarming-sk22737.html</t>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-100cm-incl-spiegelverwarming-sk22736.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>244.95</t>
+          <t>259.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -580,25 +576,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SW108328</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>185.01</v>
-      </c>
+          <t>SW108325</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-80cm-incl-spiegelverwarming-sk22734.html</t>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-60cm-incl-spiegelverwarming-sk22732.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>179.95</t>
+          <t>169.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -626,25 +620,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SW108325</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>399</v>
-      </c>
+          <t>SW161911</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-60cm-incl-spiegelverwarming-sk22732.html</t>
+          <t>https://sanitairkamer.nl/mueller-back-to-wall-vrijstaand-bad-170x75cm-met-afvoer-sk50827.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>149.95</t>
+          <t>1279.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -654,64 +646,62 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SW161911</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1079.99</v>
-      </c>
+          <t>SW161923</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-back-to-wall-vrijstaand-bad-170x75cm-met-afvoer-sk50827.html</t>
+          <t>https://sanitairkamer.nl/saniclear-circle-ronde-spiegel-met-led-verlichting-120cm-incl-spiegelverwarming-sk22737.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>852.99</t>
+          <t>299.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
@@ -721,9 +711,7 @@
           <t>SW223273</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>219</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/sanigoods-la-belle-opbouw-regendouche-mat-zwart-30cm-hoofddouche-sk28564.html</t>
@@ -731,7 +719,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -754,7 +742,11 @@
           <t>Regendouches</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Regendouches</t>
@@ -767,9 +759,7 @@
           <t>SW223271</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>199</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/sanigoods-la-belle-opbouw-regendouche-mat-zwart-25cm-hoofddouche-sk28487.html</t>
@@ -777,12 +767,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>247.95</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -800,7 +790,11 @@
           <t>Regendouches</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Regendouches</t>
@@ -813,9 +807,7 @@
           <t>SW1009</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>99</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-eco-douchewand-90x200cm-anti-kalk-8mm-sk50858.html</t>
@@ -823,12 +815,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>234.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -853,7 +845,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -863,9 +855,7 @@
           <t>SW278130</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>639.99</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-sun-buitendouche-met-handdouche-232cm-rvs-sk59128.html</t>
@@ -873,17 +863,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>889.95</t>
+          <t>799</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -896,7 +886,11 @@
           <t>Buitendouches</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Buitendouches</t>
@@ -909,9 +903,7 @@
           <t>SW161775</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>137</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/badstuber-mist-stortdouche-met-thermostaatkraan-chroom-sk11577.html</t>
@@ -919,12 +911,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>179.95</t>
+          <t>189.95</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -942,7 +934,11 @@
           <t>Regendouches</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Regendouches</t>
@@ -955,9 +951,7 @@
           <t>SW208804</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>99</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-120x200cm-anti-kalk-8mm-sk50860.html</t>
@@ -965,12 +959,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>279.95</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -995,7 +989,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -1005,9 +999,7 @@
           <t>SW238204</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>334.95</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-skyline-inloopdouche-120x200cm-mat-zwart-raster-8mm-nano-sk51290.html</t>
@@ -1015,7 +1007,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1045,32 +1037,30 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SW238214</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>219.01</v>
-      </c>
+          <t>SW225871</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-120x70cm-met-led-verlichting-en-spiegelverwarming-sk22740.html</t>
+          <t>https://sanitairkamer.nl/saniclear-freshline-half-vrijstaand-bad-180x80-glans-wit-sk29019.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>279.99</t>
+          <t>1299.95</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1080,64 +1070,62 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SW225871</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>794.99</v>
-      </c>
+          <t>SW238214</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-freshline-half-vrijstaand-bad-180x80-glans-wit-sk29019.html</t>
+          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-120x70cm-met-led-verlichting-en-spiegelverwarming-sk22740.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>279.99</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
@@ -1147,9 +1135,7 @@
           <t>SW1008</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>99</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-eco-douchescherm-100x200cm-anti-kalk-8mm-sk50859.html</t>
@@ -1157,12 +1143,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>249.95</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1187,7 +1173,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -1197,9 +1183,7 @@
           <t>SW209334</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>269.95</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/nordal-denmark-zwarte-ronde-spiegel-80cm-sk27339.html</t>
@@ -1207,7 +1191,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1243,9 +1227,7 @@
           <t>SW6238</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>250</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-cube-ligbad-180x80cm-wit-sk1116.html</t>
@@ -1253,17 +1235,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>319</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>11 weeks delivery</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1289,9 +1271,7 @@
           <t>SW157891</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>108</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-inbouwnis-mat-zwart-30x60x7cm-rvs-8719956084652-33-2181-sk21504.html</t>
@@ -1299,12 +1279,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>107.99</t>
+          <t>179</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1332,92 +1312,92 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SW223272</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>375</v>
-      </c>
+          <t>SW6328</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-talpa-opbouw-regendouche-chroom-30cm-hoofddouche-staafhanddouche-sk24819.html</t>
+          <t>https://sanitairkamer.nl/best-design-bob-ligbad-180x80x42cm-3801360.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>229.95</t>
+          <t>206.95</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Regendouches</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Regendouches</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SW6328</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>329</v>
-      </c>
+          <t>SW223272</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/best-design-bob-ligbad-180x80x42cm-3801360.html</t>
+          <t>https://sanitairkamer.nl/saniclear-talpa-opbouw-regendouche-chroom-30cm-hoofddouche-staafhanddouche-sk24819.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>229.95</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>0 hours delivery</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>Regendouches</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Regendouches</t>
         </is>
       </c>
     </row>
@@ -1427,9 +1407,7 @@
           <t>SW238202</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>309.95</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-skyline-inloopdouche-100x200cm-mat-zwart-raster-8mm-nano-sk51288.html</t>
@@ -1437,7 +1415,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1447,7 +1425,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1467,32 +1445,30 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SW108326</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>189</v>
-      </c>
+          <t>SW157888</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-100x70cm-met-led-verlichting-en-spiegelverwarming-sk22739.html</t>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-mat-zwart-30x30x7cm-rvs-8719956084645-33-2180-sk21503.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1502,43 +1478,41 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Nis badkamer</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Nis badkamer</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SW157888</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>98.01000000000001</v>
-      </c>
+          <t>SW108326</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-inbouwnis-mat-zwart-30x30x7cm-rvs-8719956084645-33-2180-sk21503.html</t>
+          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-100x70cm-met-led-verlichting-en-spiegelverwarming-sk22739.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>100.99</t>
+          <t>264</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1548,43 +1522,41 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SW157889</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>99.75</v>
-      </c>
+          <t>SW1125</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-inbouwnis-30x60x7cm-rvs-sk50941.html</t>
+          <t>https://sanitairkamer.nl/saniclear-cube-ligbad-170x75cm-wit-sk1115.html</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>109.99</t>
+          <t>206.95</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1594,43 +1566,41 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SW1125</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>250</v>
-      </c>
+          <t>SW238210</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-cube-ligbad-170x75cm-wit-sk1115.html</t>
+          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-120x200cm-anti-kalk-8mm-sk23066.html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>328.95</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1640,43 +1610,45 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SW238210</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>239</v>
-      </c>
+          <t>SW157889</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-120x200cm-anti-kalk-8mm-sk23066.html</t>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-30x60x7cm-rvs-sk50941.html</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>318.99</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1686,22 +1658,18 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Nis badkamer</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Nis badkamer</t>
         </is>
       </c>
     </row>
@@ -1711,9 +1679,7 @@
           <t>SW238201</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>295</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-nero-inloopdouche-90x200-8mm-nano-met-zwarte-profielen-sk30401.html</t>
@@ -1721,7 +1687,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1731,7 +1697,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1751,7 +1717,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -1761,9 +1727,7 @@
           <t>SW23914</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>119</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-athene-vierkante-smc-douchebak-90x90cm-wit-sk6706.html</t>
@@ -1771,17 +1735,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>117.95</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1801,78 +1765,74 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SW108324</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>189.99</v>
-      </c>
+          <t>SW238231</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/gliss-design-oko-ronde-spiegel-met-verlichting-40cm-sk29161.html</t>
+          <t>https://sanitairkamer.nl/saniclear-swing-douchecabine-90x90-vierkant-sk30201.html</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>149.95</t>
+          <t>399.95</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchecabines</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SW238224</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>234.99</v>
-      </c>
+          <t>SW108324</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/kerra-optimo-douchedeur-100x190cm-chroom-sk35205.html</t>
+          <t>https://sanitairkamer.nl/gliss-design-oko-ronde-spiegel-met-verlichting-40cm-sk29161.html</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>209.99</t>
+          <t>139.95</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1882,89 +1842,85 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SW238222</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>199</v>
-      </c>
+          <t>SW238224</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-120x80cm-sk50729.html</t>
+          <t>https://sanitairkamer.nl/kerra-optimo-douchedeur-100x190cm-chroom-sk35205.html</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>174.95</t>
+          <t>269.95</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SW238231</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>819</v>
-      </c>
+          <t>SW238222</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-swing-douchecabine-90x90-vierkant-sk30201.html</t>
+          <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-120x80cm-sk50729.html</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>399.95</t>
+          <t>194.95</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1974,18 +1930,18 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
@@ -1995,9 +1951,7 @@
           <t>SW2328</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>99</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-80x200cm-anti-kalk-8mm-sk50857.html</t>
@@ -2005,12 +1959,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>224.95</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2035,32 +1989,30 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SW238203</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>335</v>
-      </c>
+          <t>SW238208</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-nero-inloopdouche-120x200-8mm-nano-met-zwarte-profielen-sk30403.html</t>
+          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-100x200cm-anti-kalk-8mm-sk23065.html</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>310.95</t>
+          <t>299.95</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2085,32 +2037,30 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SW238208</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>229</v>
-      </c>
+          <t>SW238203</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-100x200cm-anti-kalk-8mm-sk23065.html</t>
+          <t>https://sanitairkamer.nl/saniclear-nero-inloopdouche-120x200-8mm-nano-met-zwarte-profielen-sk30403.html</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>299.95</t>
+          <t>310.95</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2135,7 +2085,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -2145,9 +2095,7 @@
           <t>SW358008</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>199</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/sanigoods-clear-inloopdouche-120cm-helder-anti-kalk-incl-zwart-profiel-stang.html</t>
@@ -2155,12 +2103,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>239.95</t>
+          <t>284.95</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2185,7 +2133,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -2195,9 +2143,7 @@
           <t>SW209331</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>49.01</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-nero-toiletborstel-met-wandhouder-mat-zwart-sk22053.html</t>
@@ -2205,7 +2151,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2215,7 +2161,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>7 weeks delivery</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2235,7 +2181,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>WC borstelgarnituren</t>
+          <t>Toilet accessoires</t>
         </is>
       </c>
     </row>
@@ -2245,9 +2191,7 @@
           <t>SW238205</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>536.01</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/best-design-nero-inloopdouche-140x200cm-anti-kalk-10mm-sk51395.html</t>
@@ -2255,7 +2199,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2285,7 +2229,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -2295,9 +2239,7 @@
           <t>SW209323</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>25</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-nero-toiletrolhouder-mat-zwart-sk22050.html</t>
@@ -2305,7 +2247,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2335,7 +2277,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Toiletrolhouders</t>
+          <t>Toilet accessoires</t>
         </is>
       </c>
     </row>
@@ -2345,9 +2287,7 @@
           <t>SW238207</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>219</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-90x200cm-anti-kalk-8mm-sk23064.html</t>
@@ -2355,7 +2295,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2365,7 +2305,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6 weeks delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2385,7 +2325,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -2395,9 +2335,7 @@
           <t>SW419869</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>79</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-handdoek-rek-houder-industrieel-95x25x20cm-mat-zwart-sk27063.html</t>
@@ -2405,17 +2343,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>74.98</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>4 weeks delivery</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2435,7 +2373,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Handdoekenrekken</t>
+          <t>Handdoekhouders</t>
         </is>
       </c>
     </row>
@@ -2445,9 +2383,7 @@
           <t>SW238209</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>365</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-around-inloopdouche-110x200-mat-zwart-anti-kalk-sk59017.html</t>
@@ -2455,12 +2391,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>309.95</t>
+          <t>315.95</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2485,7 +2421,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -2495,9 +2431,7 @@
           <t>SW208812</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>295</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/aqualine-pilot-pendeldeuren-chroom-90x190cm-sk29088.html</t>
@@ -2505,12 +2439,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>265.5</t>
+          <t>239</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2541,9 +2475,7 @@
           <t>SW238220</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>158.99</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-80x80cm-sk50727.html</t>
@@ -2551,17 +2483,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>129.95</t>
+          <t>149.95</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2587,9 +2519,7 @@
           <t>SW238218</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>355</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/gliss-design-vertical-spiegel-met-led-verlichting-120x70cm-sk29179.html</t>
@@ -2597,7 +2527,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2633,9 +2563,7 @@
           <t>SW238221</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>179</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-100x80cm-sk50728.html</t>
@@ -2643,12 +2571,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>139.95</t>
+          <t>174.95</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2679,9 +2607,7 @@
           <t>SW1211</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>205</v>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/badstuber-corner-vierkante-douchecabine-90x90x185cm-chroom-sk11731.html</t>
@@ -2689,12 +2615,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>249.95</t>
+          <t>259.95</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2725,9 +2651,7 @@
           <t>SW377850</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>425</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/sanigoods-adobe-inbouw-regendouche-mat-zwart-25cm-sk28630.html</t>
@@ -2735,15 +2659,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>449.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Regendouches</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Regendouches</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2751,9 +2699,7 @@
           <t>SW238200</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>274.96</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-skyline-inloopdouche-80x200cm-mat-zwart-raster-8mm-nano-sk51286.html</t>
@@ -2761,7 +2707,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2771,7 +2717,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2791,32 +2737,30 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SW1208</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>199</v>
-      </c>
+          <t>SW238229</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/badstuber-aura-douchecabine-kwartrond-90x90x190cm-chroom-sk11176.html</t>
+          <t>https://sanitairkamer.nl/kerra-olga-square-douchecabine-vierkant-incl-douchebak-90x90cm-wit-sk35025.html</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>249.95</t>
+          <t>329.99</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2844,30 +2788,28 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SW238229</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>345</v>
-      </c>
+          <t>SW1208</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/kerra-olga-square-douchecabine-vierkant-incl-douchebak-90x90cm-wit-sk35025.html</t>
+          <t>https://sanitairkamer.nl/badstuber-aura-douchecabine-kwartrond-90x90x190cm-chroom-sk11176.html</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>329.99</t>
+          <t>259.95</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2893,9 +2835,7 @@
           <t>SW237319</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>35.01</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-nero-badkamer-wisser-25cm-mat-zwart-sk22055.html</t>
@@ -2903,7 +2843,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2936,25 +2876,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SW238226</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>315</v>
-      </c>
+          <t>SW208803</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/kerra-optimo-douchedeur-120x190cm-chroom-sk35208.html</t>
+          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-70x200cm-anti-kalk-8mm-sk50856.html</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>229.99</t>
+          <t>214.95</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2969,84 +2907,84 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SW238213</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>169</v>
-      </c>
+          <t>SW238226</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-80x70cm-met-led-verlichting-en-spiegelverwarming-sk22738.html</t>
+          <t>https://sanitairkamer.nl/kerra-optimo-douchedeur-120x190cm-chroom-sk35208.html</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>289.95</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SW8415</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>211</v>
-      </c>
+          <t>SW238213</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/badstuber-elite-douche-vouwdeur-chroom-80x195cm-anti-kalk-sk51526.html</t>
+          <t>https://sanitairkamer.nl/saniclear-aspen-spiegel-80x70cm-met-led-verlichting-en-spiegelverwarming-sk22738.html</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>219.99</t>
+          <t>244</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3056,43 +2994,41 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SW208803</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>99</v>
-      </c>
+          <t>SW8415</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-70x200cm-anti-kalk-8mm-sk50856.html</t>
+          <t>https://sanitairkamer.nl/badstuber-elite-douche-vouwdeur-chroom-80x195cm-anti-kalk-sk51526.html</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>219.99</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3107,42 +3043,36 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SW238198</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>229</v>
-      </c>
+          <t>SW156384</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/badstuber-window-douchewand-mat-zwart-geruit-120x195cm-sk51433.html</t>
+          <t>https://sanitairkamer.nl/mueller-inbouwnis-30x30x7cm-rvs-sk50940.html</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3152,22 +3082,18 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Nis badkamer</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Nis badkamer</t>
         </is>
       </c>
     </row>
@@ -3177,9 +3103,7 @@
           <t>SW208805</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>234.95</v>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-slimline-inloopdouche-140cm-helder-anti-kalk-incl-chroom-profiel-stang-sk21767.html</t>
@@ -3187,12 +3111,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>199.9</t>
+          <t>314.95</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3217,53 +3141,55 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SW156384</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>75.01000000000001</v>
-      </c>
+          <t>SW238198</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-inbouwnis-30x30x7cm-rvs-sk50940.html</t>
+          <t>https://sanitairkamer.nl/badstuber-window-douchewand-mat-zwart-geruit-120x195cm-sk51433.html</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>100.99</t>
+          <t>289</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>2 weeks delivery</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Nis badkamer</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -3273,9 +3199,7 @@
           <t>SW447</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>275</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/aqualine-pilot-draaideur-90x190cm-met-chromen-profielen-sk29086.html</t>
@@ -3283,17 +3207,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>229.95</t>
+          <t>309.95</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3319,9 +3243,7 @@
           <t>SW238219</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>144.99</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-shine-led-spiegel-60x80cm-sk50726.html</t>
@@ -3329,12 +3251,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>119.95</t>
+          <t>139.95</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3365,9 +3287,7 @@
           <t>SW8416</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>237</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/badstuber-elite-douche-vouwdeur-chroom-90x195cm-anti-kalk-sk51527.html</t>
@@ -3375,7 +3295,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3385,7 +3305,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3411,9 +3331,7 @@
           <t>SW238206</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>209</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-block-douchewand-mat-zwart-80x200cm-anti-kalk-8mm-sk23063.html</t>
@@ -3421,7 +3339,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3431,7 +3349,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3451,7 +3369,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -3461,9 +3379,7 @@
           <t>SW238196</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>209</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/badstuber-window-douchewand-mat-zwart-geruit-100x195cm-sk51432.html</t>
@@ -3471,17 +3387,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>254</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3501,7 +3417,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -3511,9 +3427,7 @@
           <t>SW208802</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>99</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-60x200cm-anti-kalk-8mm-sk50855.html</t>
@@ -3521,12 +3435,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>199.95</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3551,7 +3465,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -3561,9 +3475,7 @@
           <t>SW238195</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>225</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/sanigoods-satin-120cm-gedeeltelijk-melkglas-douchewand-8mm-antikalk-sk21574.html</t>
@@ -3571,12 +3483,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>199.95</t>
+          <t>289.95</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3601,7 +3513,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -3611,9 +3523,7 @@
           <t>SW20614</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>435</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/van-rijn-st01-profielloze-nisdeur-90cm-chroom-sk35340.html</t>
@@ -3621,12 +3531,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>349.95</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3657,9 +3567,7 @@
           <t>SW23918</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>139</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-athene-rechthoekige-smc-douchebak-120x90cm-wit-sk6710.html</t>
@@ -3667,17 +3575,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>149.99</t>
+          <t>190.95</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3697,7 +3605,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
@@ -3707,9 +3615,7 @@
           <t>SW238211</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>515</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/van-rijn-inloopdouche-st04-mat-zwart-140x200cm-sk28544.html</t>
@@ -3717,17 +3623,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>349.95</t>
+          <t>385.95</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3747,37 +3653,35 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SW208810</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>99</v>
-      </c>
+          <t>SW208813</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-clips-inloopdouche-profielloos-120x200cm-anti-kalk-sk50749.html</t>
+          <t>https://sanitairkamer.nl/aqualine-pilot-pendeldeuren-chroom-100x190cm-sk29089.html</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>282.95</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3787,17 +3691,13 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
@@ -3807,9 +3707,7 @@
           <t>SW208801</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>99</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-eco-inloopdouche-50x200cm-anti-kalk-8mm-sk50854.html</t>
@@ -3817,17 +3715,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3847,37 +3745,35 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SW23913</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>109</v>
-      </c>
+          <t>SW208810</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-athene-vierkante-smc-douchebak-80x80cm-wit-sk6705.html</t>
+          <t>https://sanitairkamer.nl/mueller-clips-inloopdouche-profielloos-120x200cm-anti-kalk-sk50749.html</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>102.95</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3887,42 +3783,40 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Douchewanden</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SW208813</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>309</v>
-      </c>
+          <t>SW23913</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/aqualine-pilot-pendeldeuren-chroom-100x190cm-sk29089.html</t>
+          <t>https://sanitairkamer.nl/saniclear-athene-vierkante-smc-douchebak-80x80cm-wit-sk6705.html</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>274.5</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3937,13 +3831,17 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
@@ -3953,9 +3851,7 @@
           <t>SW238217</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>158.99</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/badstuber-olas-spiegel-met-led-verlichting-100x60cm-sk11251.html</t>
@@ -3963,7 +3859,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3999,9 +3895,7 @@
           <t>SW238199</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>375</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/sanigoods-next-douchewand-met-mat-zwart-raster-140x200cm-sk27485.html</t>
@@ -4009,17 +3903,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>309</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4039,7 +3933,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -4049,9 +3943,7 @@
           <t>SW208800</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>110</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/mueller-basic-douchewand-40x200cm-met-anti-kalk-coating-sk50818.html</t>
@@ -4059,12 +3951,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>119.9</t>
+          <t>179.95</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4089,32 +3981,30 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SW238194</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>215</v>
-      </c>
+          <t>SW358009</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-mat-glas-100x200cm-8mm-nano-glas.html</t>
+          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-140x200cm-8mm-nano-glas.html</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>199.95</t>
+          <t>319.95</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4139,32 +4029,30 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SW358009</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>240</v>
-      </c>
+          <t>SW238194</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-140x200cm-8mm-nano-glas.html</t>
+          <t>https://sanitairkamer.nl/mueller-slimline-glaswand-mat-glas-100x200cm-8mm-nano-glas.html</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>244.95</t>
+          <t>269.95</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4189,7 +4077,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -4199,9 +4087,7 @@
           <t>SW23916</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/badstuber-tris-douchebak-rechthoek-smc-100x90cm-sk27661.html</t>
@@ -4209,17 +4095,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>139.95</t>
+          <t>174.95</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4239,7 +4125,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
@@ -4249,9 +4135,7 @@
           <t>SW238230</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>199</v>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-swing-douchecabine-80x80-vierkant-sk30200.html</t>
@@ -4259,7 +4143,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4269,7 +4153,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4292,30 +4176,28 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SW23915</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>192</v>
-      </c>
+          <t>SW23854</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/best-design-donar-douchebak-vierkant-100x100cm-3801420.html</t>
+          <t>https://sanitairkamer.nl/saniclear-athene-vierkante-smc-douchebak-80x80cm-wit-sk6705.html</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>153.95</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>11 weeks delivery</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4335,37 +4217,35 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SW23855</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>39</v>
-      </c>
+          <t>SW23850</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/badstuber-venus-douchebak-90x90x5-5cm-wit-sk11111.html</t>
+          <t>https://sanitairkamer.nl/kerra-glasgow-douchebak-vijfhoek-90x90x6cm-sk4377.html</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>15 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4385,87 +4265,59 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SW23919</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>109</v>
-      </c>
+          <t>SW23915</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-80x80cm-wit-sk6708.html</t>
+          <t>https://sanitairkamer.nl/best-design-donar-douchebak-vierkant-100x100cm-3801420.html</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>109.99</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>24 hours delivery</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Douches</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Douchebakken</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Douchebak</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Douchebak</t>
-        </is>
-      </c>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SW23854</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>109</v>
-      </c>
+          <t>SW23855</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-athene-vierkante-smc-douchebak-80x80cm-wit-sk6705.html</t>
+          <t>https://sanitairkamer.nl/badstuber-venus-douchebak-90x90x5-5cm-wit-sk11111.html</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>11 weeks delivery</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4485,32 +4337,30 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SW23921</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>39</v>
-      </c>
+          <t>SW23856</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/badstuber-zeus-kwartronde-douchebak-100x100x5-5cm-wit-sk11115.html</t>
+          <t>https://sanitairkamer.nl/best-design-donar-douchebak-vierkant-100x100cm-3801420.html</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>144.99</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4535,32 +4385,30 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SW23850</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>345</v>
-      </c>
+          <t>SW23919</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/kerra-glasgow-douchebak-vijfhoek-90x90x6cm-sk4377.html</t>
+          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-80x80cm-wit-sk6708.html</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>109.99</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4585,37 +4433,35 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SW23856</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>192</v>
-      </c>
+          <t>SW23851</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/best-design-donar-douchebak-vierkant-100x100cm-3801420.html</t>
+          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-80x80cm-wit-sk6708.html</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4635,37 +4481,35 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SW23852</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>119</v>
-      </c>
+          <t>SW23921</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-90x90cm-wit-sk6707.html</t>
+          <t>https://sanitairkamer.nl/badstuber-zeus-kwartronde-douchebak-100x100x5-5cm-wit-sk11115.html</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>144.99</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>11 weeks delivery</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4685,37 +4529,35 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SW23851</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>109</v>
-      </c>
+          <t>SW23853</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-80x80cm-wit-sk6708.html</t>
+          <t>https://sanitairkamer.nl/badstuber-zeus-kwartronde-douchebak-100x100x5-5cm-wit-sk11115.html</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4735,32 +4577,30 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SW23853</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>39</v>
-      </c>
+          <t>SW638770</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://sanitairkamer.nl/badstuber-zeus-kwartronde-douchebak-100x100x5-5cm-wit-sk11115.html</t>
+          <t>https://www.tegeldepot.nl/opbouw-waskom-boss-wessing-fabiana-50x35x14-cm-solid-surface-mat-wit</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4770,72 +4610,70 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Wastafels</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Alle wastafels</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Waskommen</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Alle wastafels</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SW638770</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>199</v>
-      </c>
+          <t>SW23852</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.tegeldepot.nl/opbouw-waskom-boss-wessing-fabiana-50x35x14-cm-solid-surface-mat-wit</t>
+          <t>https://sanitairkamer.nl/saniclear-athene-kwartronde-smc-douchebak-90x90cm-wit-sk6707.html</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>14 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Wastafels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Alle wastafels</t>
+          <t>Douchebakken</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Waskommen</t>
+          <t>Douchebak</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Waskommen</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
@@ -4845,9 +4683,7 @@
           <t>SW638769</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>1695</v>
-      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>https://sanitairkamer.nl/saniclear-stilo-vrijstaand-bad-solid-surface-mat-wit-178x92x55cm-sk22756.html</t>
@@ -4855,17 +4691,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>14 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
